--- a/TP03/DatosINEC_procesado.xlsx
+++ b/TP03/DatosINEC_procesado.xlsx
@@ -4003,10 +4003,8 @@
       <c r="G99" t="n">
         <v>53.8860103626943</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H99" t="n">
+        <v>3.076537575131531</v>
       </c>
       <c r="I99" t="n">
         <v>46.1139896373057</v>
